--- a/data/trans_dic/P16A_n_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,17</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,36</t>
+          <t>0,65; 5,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,99</t>
+          <t>0,82; 3,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,96</t>
+          <t>0,97; 3,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,86</t>
+          <t>1,22; 5,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,16</t>
+          <t>1,35; 5,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,82</t>
+          <t>1,74; 5,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,96</t>
+          <t>2,49; 5,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,06</t>
+          <t>0,88; 3,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,32</t>
+          <t>1,22; 4,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,98</t>
+          <t>1,49; 4,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,31</t>
+          <t>2,02; 4,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,49</t>
+          <t>0,41; 2,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,31</t>
+          <t>2,14; 6,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,88</t>
+          <t>0,75; 2,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,64</t>
+          <t>2,3; 5,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,03</t>
+          <t>2,47; 5,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,07</t>
+          <t>4,64; 9,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,21</t>
+          <t>2,0; 5,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,52</t>
+          <t>5,89; 9,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,66</t>
+          <t>1,77; 3,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,1</t>
+          <t>3,89; 6,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,63</t>
+          <t>1,59; 3,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,08</t>
+          <t>4,39; 7,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,13</t>
+          <t>4,91; 9,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,72</t>
+          <t>0,61; 3,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,21</t>
+          <t>0,83; 4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,8</t>
+          <t>11,05; 16,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,9</t>
+          <t>0,33; 2,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,32</t>
+          <t>0,57; 2,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,57</t>
+          <t>8,77; 12,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,0</t>
+          <t>0,23; 1,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,1</t>
+          <t>0,32; 3,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,17</t>
+          <t>1,24; 4,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,6</t>
+          <t>3,66; 8,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,35</t>
+          <t>0,84; 3,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,98</t>
+          <t>5,63; 11,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,88</t>
+          <t>4,99; 10,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,48</t>
+          <t>3,6; 8,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,57</t>
+          <t>0,77; 2,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,45</t>
+          <t>3,17; 6,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,81</t>
+          <t>3,53; 6,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,56</t>
+          <t>4,15; 7,62</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,85</t>
+          <t>2,02; 7,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,77</t>
+          <t>0,38; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 9,15</t>
+          <t>4,14; 9,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,94</t>
+          <t>0,48; 4,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 19,49</t>
+          <t>10,39; 20,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,41</t>
+          <t>2,4; 8,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 14,93</t>
+          <t>5,67; 14,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,77</t>
+          <t>0,46; 2,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,64</t>
+          <t>7,02; 12,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,93</t>
+          <t>1,74; 5,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,65</t>
+          <t>6,41; 11,6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,87</t>
+          <t>1,01; 5,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,29</t>
+          <t>7,59; 13,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,91</t>
+          <t>0,32; 2,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,62</t>
+          <t>1,05; 4,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,17</t>
+          <t>3,68; 9,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,27</t>
+          <t>10,18; 16,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,97</t>
+          <t>0,33; 1,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,95</t>
+          <t>0,72; 2,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,41</t>
+          <t>2,76; 6,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,67; 13,53</t>
+          <t>9,62; 13,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,57</t>
+          <t>1,15; 3,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,82</t>
+          <t>0,66; 2,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,2</t>
+          <t>1,45; 4,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,8</t>
+          <t>2,1; 4,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,3</t>
+          <t>1,06; 3,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,36</t>
+          <t>1,71; 4,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,94</t>
+          <t>1,98; 4,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 11,36</t>
+          <t>3,93; 10,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,97</t>
+          <t>1,39; 2,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,11</t>
+          <t>1,41; 3,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,99</t>
+          <t>2,01; 4,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,54</t>
+          <t>3,73; 7,38</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,32</t>
+          <t>1,85; 4,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,17</t>
+          <t>0,43; 2,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,71</t>
+          <t>0,34; 1,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,1</t>
+          <t>1,36; 5,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,68</t>
+          <t>2,86; 5,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,89</t>
+          <t>3,61; 6,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,98</t>
+          <t>3,61; 6,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,66</t>
+          <t>8,44; 12,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,5</t>
+          <t>2,61; 4,66</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,1</t>
+          <t>2,25; 4,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,99</t>
+          <t>2,24; 4,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,03</t>
+          <t>3,83; 7,95</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,02</t>
+          <t>1,12; 1,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,48</t>
+          <t>1,34; 2,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,27; 2,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,29</t>
+          <t>3,57; 5,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,23</t>
+          <t>2,05; 3,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,26; 5,77</t>
+          <t>4,33; 5,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,01</t>
+          <t>3,6; 5,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,97</t>
+          <t>7,12; 9,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,39</t>
+          <t>1,71; 2,42</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,87</t>
+          <t>2,95; 3,88</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,48</t>
+          <t>2,58; 3,46</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,46</t>
+          <t>5,88; 7,48</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido cinco o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6729</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5392</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6581</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7519</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9316</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11396</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9224</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14733</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14709</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17977</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5212</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1901; 15541</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2408; 10858</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3016; 12041</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3179; 15022</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3892; 15473</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5017; 16721</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7223; 16728</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4687; 17344</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7117; 25409</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8696; 23418</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12145; 25554</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6070</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19160</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7853</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33886</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17252</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38680</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26070</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53046</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25105</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>57659</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2027; 12858</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10833; 32108</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3751; 14629</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11900; 30597</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12451; 29656</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24299; 48202</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10474; 27843</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30320; 49546</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17688; 37021</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40077; 69602</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16271; 38646</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>45366; 73050</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22445</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5314</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47448</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8054</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5743</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6134</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5066</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15520; 31245</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2065; 11849</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2797; 13622</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38569; 57537</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5690</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2195; 13511</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3745; 15930</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58343; 84295</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2649</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17779</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7937</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30591</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28684</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29034</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10586</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35317</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>37768</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46813</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>838; 6927</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1185; 11201</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4602; 16000</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11430; 27347</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3126; 14502</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21888; 43162</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19319; 39530</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17129; 40217</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5601; 18053</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24184; 47912</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>26695; 51216</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>32704; 60043</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9791</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2771</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11339</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31665</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10506</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29020</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>41456</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13277</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>40359</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4128</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4288; 16844</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>805; 7897</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7398; 17216</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>992; 9278</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22817; 44462</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5253; 18795</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14678; 38368</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1874; 10896</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30340; 54896</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7476; 22776</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>28052; 50736</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6390</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27435</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3042</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6179</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16761</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33353</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4805</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8225</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23150</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>60788</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5371</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7178</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2645; 13251</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>20452; 35288</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>901; 8082</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2948; 13161</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10044; 27295</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26161; 41277</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1828; 10531</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4010; 15387</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14796; 35142</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>50666; 71939</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>13141</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10037</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>16970</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>20550</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12532</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19208</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>22075</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>68149</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>25672</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>29245</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>39045</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>88699</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>7090; 23415</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4407; 19206</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>9500; 27250</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13140; 29710</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6790; 19353</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11832; 29277</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13668; 32748</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33367; 93272</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17442; 37101</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>19086; 41913</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27114; 54363</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>55001; 108801</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>8378</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6238</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>31430</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>31788</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>42284</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>42131</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>72724</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>53039</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>50662</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>48368</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>104154</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>13789; 33203</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3331; 17704</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2677; 13792</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>12655; 47148</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>22384; 44642</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>29733; 57379</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>29844; 56764</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>60546; 92158</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>39818; 71210</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>36073; 67498</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>35915; 66158</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>63085; 130889</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>48414</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>61895</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>56263</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>156537</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>86946</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>177131</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>153213</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>329805</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>135360</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>239025</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>209475</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>486342</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>36592; 64528</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45861; 80691</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>43049; 70937</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>123430; 183887</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>69379; 108246</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>154178; 205263</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>127474; 178651</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>264499; 364092</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>113981; 161115</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>205742; 271287</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>179161; 239935</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>421523; 536767</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>